--- a/similarities/split_global/harmonic_similarity_timestamps_375.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_375.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,142 +484,152 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>['B:min/4', 'F#:min', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['C:min', 'G:min', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
+          <t>('0:00:33.658000', '0:00:37.859000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:51.280000', '0:02:04.160000')]</t>
+          <t>('0:05:12.842000', '0:05:17.997000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=33.658</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=111.28']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=312.842</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:7', 'C', 'C/b7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:7', 'F:maj', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:34.041000', '0:00:38.588000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:21.080000', '0:00:23.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=34.041</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=21.08</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:16.341609', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:43.340000', '0:00:59.340000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=16.341609</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -628,566 +638,592 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>jaah_63</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C:7', 'F:min', 'G:dim7', 'F:min', 'G:dim7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:01:19.460000', '0:01:29.810000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:00:22.800000', '0:00:31.040000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=79.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=22.8</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:11.200000', '0:00:28.900000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.560000', '0:00:08.680000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=11.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:30.080000', '0:01:42')]</t>
+          <t>('0:01:14.800000', '0:01:21.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:35', '0:00:39.820000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=90.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=35.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#', 'A:min/E']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:29.983333', '0:00:35.300702')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.940000')]</t>
+          <t>('0:00:24.680000', '0:00:31.240000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=29.983333']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min'], ['A#:7', 'D#', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min', 'F:maj', 'A#:min'], ['G#:7', 'C#:maj', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:23.040000', '0:00:28.920000'), ('0:00:07.840000', '0:00:11.420000'), ('0:00:12.560000', '0:00:19.540000'), ('0:00:35.700000', '0:00:38.280000'), ('0:00:40.640000', '0:00:42.420000')]</t>
+          <t>('0:00:44.070000', '0:00:55.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:25.480000', '0:00:32.800000'), ('0:00:11.700000', '0:00:20.020000'), ('0:00:36.980000', '0:00:42.420000'), ('0:00:35.220000', '0:00:40')]</t>
+          <t>('0:02:00.660000', '0:02:03.080000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=35.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=40.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=44.07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=25.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=36.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=120.66</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+          <t>('0:00:18.480000', '0:00:21.420000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:06.880000', '0:01:19')]</t>
+          <t>('0:04:13', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=18.48</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.88']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=253.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.040000')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.480839', '0:00:13.717755')]</t>
+          <t>('0:00:04.840000', '0:00:10.640000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=1.480839']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['C:min', 'G:maj/B', 'C:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:29.080000', '0:01:38.100000')]</t>
+          <t>('0:00:13.520000', '0:00:19.080000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E:min', 'D']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'G:min', 'F/3']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:12.113959', '0:00:20.066792')]</t>
+          <t>('0:00:01.540000', '0:00:04.240000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:04.473000', '0:01:07.545000')]</t>
+          <t>('0:00:46.740000', '0:00:58.460000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=12.113959']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=64.473']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=46.74</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>schubert-winterreise_202</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:01:45', '0:01:48.240000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:44', '0:01:01.060000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:12.300000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:40.450000', '0:00:45.420000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_203</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G/5', 'A/4', 'C/9', 'D/5']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D', 'E', 'G', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:05.021882', '0:00:13.148866')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:00:48.101000', '0:01:09.653000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-203#t=5.021882</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=48.101</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
